--- a/biology/Botanique/Ascosphaera_apis/Ascosphaera_apis.xlsx
+++ b/biology/Botanique/Ascosphaera_apis/Ascosphaera_apis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascosphaera apis est une espèce de champignons ascomycètes de la famille des Ascosphaeraceae, responsable de l'ascosphérose, une mycose du couvain chez Apis mellifera, connue aussi sous le nom de couvain plâtré.
-Ascosphaera apis, de même que son proche cousin Ascosphaera aggregata, sont très résistants aux très basses températures (-80 °C)[1]
+Ascosphaera apis, de même que son proche cousin Ascosphaera aggregata, sont très résistants aux très basses températures (-80 °C)
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Basionyme : 
-Pericystis apis Maasen ex Claussen 1921[2]</t>
+Pericystis apis Maasen ex Claussen 1921</t>
         </is>
       </c>
     </row>
